--- a/Sample Project/Properties.xlsx
+++ b/Sample Project/Properties.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
